--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3274409.594285619</v>
+        <v>3383051.755588431</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283179</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8049436.301110889</v>
+        <v>8054929.947099304</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>69.17125706201922</v>
       </c>
       <c r="E2" t="n">
-        <v>128.9521645690642</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>65.34334808401231</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -883,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>135.887817640013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.10524828400264</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>37.78226500401019</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -993,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1060,7 +1062,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>78.87534259307446</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,7 +1107,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>214.003418891271</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -1114,10 +1116,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1139,16 +1141,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>63.63509288679619</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>163.9090277138023</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1.307218919257359</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>110.697743773269</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1424,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1578,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>132.1341815222715</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1661,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>100.7197280522379</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1901,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>136.1078891637031</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2239,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>160.5414768533583</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2536,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>105.9742079424027</v>
       </c>
     </row>
     <row r="26">
@@ -2719,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>107.1685137621111</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182122</v>
+        <v>88.42183553064734</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465691</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856542</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012157</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>218.2042067722811</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.709655389037</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819372</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428494</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012157</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016445</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272882</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.184474389244</v>
+        <v>285.4827669718948</v>
       </c>
       <c r="V34" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819372</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428404</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012157</v>
+        <v>0.01276235473674205</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206828</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>92.20984583428989</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465691</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462238</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856542</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012157</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016445</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U40" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187874</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3800,13 +3802,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3895,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465691</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>55.520796240606</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.5229983365909</v>
+        <v>248.3840700603486</v>
       </c>
       <c r="X43" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4043,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4138,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>15.9345014072213</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4195,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>71.56327578339756</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1432.831501090107</v>
+        <v>1283.162304328173</v>
       </c>
       <c r="C2" t="n">
-        <v>1432.831501090107</v>
+        <v>914.1997873877613</v>
       </c>
       <c r="D2" t="n">
-        <v>1074.565802483357</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974333</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078258</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4328,16 +4330,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4358,22 +4360,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="W2" t="n">
-        <v>2209.570673130041</v>
+        <v>1669.762144392295</v>
       </c>
       <c r="X2" t="n">
-        <v>2209.570673130041</v>
+        <v>1669.762144392295</v>
       </c>
       <c r="Y2" t="n">
-        <v>1819.431341154229</v>
+        <v>1669.762144392295</v>
       </c>
     </row>
     <row r="3">
@@ -4398,31 +4400,31 @@
         <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>520.4109910936369</v>
       </c>
       <c r="L3" t="n">
-        <v>801.944955774447</v>
+        <v>815.1145481251085</v>
       </c>
       <c r="M3" t="n">
-        <v>1165.206974733667</v>
+        <v>1178.376567084329</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330612</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506774</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>220.18296949591</v>
+        <v>668.0249956342917</v>
       </c>
       <c r="C4" t="n">
-        <v>51.2467865680031</v>
+        <v>602.021613731249</v>
       </c>
       <c r="D4" t="n">
-        <v>51.2467865680031</v>
+        <v>451.9049743189132</v>
       </c>
       <c r="E4" t="n">
-        <v>51.2467865680031</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T4" t="n">
-        <v>1310.884232784815</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="U4" t="n">
-        <v>1021.765895288653</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V4" t="n">
-        <v>767.0814070827661</v>
+        <v>896.0145465323091</v>
       </c>
       <c r="W4" t="n">
-        <v>767.0814070827661</v>
+        <v>896.0145465323091</v>
       </c>
       <c r="X4" t="n">
-        <v>539.0918561847487</v>
+        <v>668.0249956342917</v>
       </c>
       <c r="Y4" t="n">
-        <v>401.8314343261497</v>
+        <v>668.0249956342917</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1236.203140240072</v>
+        <v>1202.59552936621</v>
       </c>
       <c r="C5" t="n">
-        <v>1236.203140240072</v>
+        <v>1202.59552936621</v>
       </c>
       <c r="D5" t="n">
-        <v>877.9374416333219</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E5" t="n">
-        <v>877.9374416333219</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
         <v>795.755353087291</v>
@@ -4595,22 +4597,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664335</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V5" t="n">
-        <v>1977.695380320764</v>
+        <v>2315.429782961525</v>
       </c>
       <c r="W5" t="n">
-        <v>1624.92672505065</v>
+        <v>1962.661127691411</v>
       </c>
       <c r="X5" t="n">
-        <v>1251.46096678957</v>
+        <v>1589.195369430331</v>
       </c>
       <c r="Y5" t="n">
-        <v>1251.46096678957</v>
+        <v>1589.195369430331</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380223</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694941</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1025.614745646621</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,16 +4679,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>349.2765195627319</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="C7" t="n">
-        <v>349.2765195627319</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="D7" t="n">
-        <v>199.1598801503962</v>
+        <v>130.9188497933308</v>
       </c>
       <c r="E7" t="n">
-        <v>51.2467865680031</v>
+        <v>130.9188497933308</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>130.9188497933308</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>130.9188497933308</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>130.9188497933308</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4753,22 +4755,22 @@
         <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1121.068896162798</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>831.9505586666361</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V7" t="n">
-        <v>577.2660704607492</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W7" t="n">
-        <v>577.2660704607492</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="X7" t="n">
-        <v>349.2765195627319</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="Y7" t="n">
-        <v>349.2765195627319</v>
+        <v>281.0354892056666</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.7704558796265</v>
+        <v>1532.706951134003</v>
       </c>
       <c r="C8" t="n">
-        <v>552.8079389392149</v>
+        <v>1163.744434193592</v>
       </c>
       <c r="D8" t="n">
-        <v>552.8079389392149</v>
+        <v>1163.744434193592</v>
       </c>
       <c r="E8" t="n">
-        <v>552.8079389392149</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F8" t="n">
-        <v>141.8220341496073</v>
+        <v>366.9702768057398</v>
       </c>
       <c r="G8" t="n">
-        <v>130.7899880350079</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2084.871465656511</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>1919.306791198125</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943748</v>
+        <v>1919.306791198125</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>478.9911633238872</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="C10" t="n">
-        <v>310.0549803959803</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D10" t="n">
-        <v>310.0549803959803</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251691</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="X10" t="n">
-        <v>478.9911633238872</v>
+        <v>886.2659340466589</v>
       </c>
       <c r="Y10" t="n">
-        <v>478.9911633238872</v>
+        <v>665.4733549031288</v>
       </c>
     </row>
     <row r="11">
@@ -5033,55 +5035,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O12" t="n">
-        <v>2299.457522348532</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5224,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2246.448509608146</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1957.373282952344</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1702.688794746457</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>964.4894946679489</v>
       </c>
     </row>
     <row r="14">
@@ -5267,16 +5269,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5291,34 +5293,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5364,7 +5366,7 @@
         <v>577.3880777468471</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N15" t="n">
         <v>1577.52840832642</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>560.7825789706076</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C16" t="n">
-        <v>391.8463960427007</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D16" t="n">
-        <v>241.729756630365</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797189</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797189</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>963.2236229443774</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y16" t="n">
-        <v>742.4310438008473</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5537,25 +5539,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708873</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.395944601127</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5765,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,25 +5831,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>1963.765362972544</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>2515.675093211831</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>924.6979859831846</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1106.346450813424</v>
       </c>
     </row>
     <row r="23">
@@ -5963,61 +5965,61 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466572</v>
@@ -6060,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>716.6687843969308</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998286</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E25" t="n">
-        <v>194.8007783998286</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6184,13 +6186,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="26">
@@ -6212,16 +6214,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6233,13 +6235,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,28 +6305,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.627092998424</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2527.96527192868</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998286</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E28" t="n">
-        <v>194.8007783998286</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F28" t="n">
-        <v>194.8007783998286</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>4115.110757018135</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>3860.426268812248</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>3860.426268812248</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>3632.436717914231</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="29">
@@ -6449,19 +6451,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6476,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,28 +6542,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>951.7772127656153</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="C31" t="n">
-        <v>782.8410298377086</v>
+        <v>639.9526724577793</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253729</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429799</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429799</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.61519755786</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832664</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855606</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199804</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1650.832398530833</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1361.415228493872</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1133.425677595855</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y31" t="n">
-        <v>1133.425677595855</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6688,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6701,7 +6703,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6786,19 +6788,19 @@
         <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.938859683105</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400743</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121675</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121675</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121675</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121675</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270476</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038346</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797749</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279804</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580262</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832664</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487569</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.46108051051</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854708</v>
+        <v>4335.421017366253</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648822</v>
+        <v>4080.736529160366</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611861</v>
+        <v>3791.319359123406</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138439</v>
+        <v>3563.329808225389</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703139</v>
+        <v>3342.537229081859</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6928,7 @@
         <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6950,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,28 +7016,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.311647517212</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2757.723669558406</v>
+        <v>3006.404946868832</v>
       </c>
       <c r="C37" t="n">
-        <v>2588.787486630499</v>
+        <v>3006.404946868832</v>
       </c>
       <c r="D37" t="n">
-        <v>2588.787486630499</v>
+        <v>2856.288307456496</v>
       </c>
       <c r="E37" t="n">
-        <v>2588.787486630499</v>
+        <v>2708.375213874103</v>
       </c>
       <c r="F37" t="n">
-        <v>2588.787486630499</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="G37" t="n">
-        <v>2421.591387345379</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I37" t="n">
         <v>2337.686731866304</v>
@@ -7117,28 +7119,28 @@
         <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650996</v>
+        <v>4690.820261131183</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305901</v>
+        <v>4507.965426786087</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328842</v>
+        <v>4288.363961809028</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.25592267304</v>
+        <v>3999.288735153226</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467153</v>
+        <v>3744.60424694734</v>
       </c>
       <c r="W37" t="n">
-        <v>3388.154264430193</v>
+        <v>3455.187076910379</v>
       </c>
       <c r="X37" t="n">
-        <v>3160.164713532175</v>
+        <v>3227.197526012362</v>
       </c>
       <c r="Y37" t="n">
-        <v>2939.372134388645</v>
+        <v>3006.404946868832</v>
       </c>
     </row>
     <row r="38">
@@ -7154,31 +7156,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
@@ -7190,7 +7192,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7199,16 +7201,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
         <v>3467.980956852888</v>
@@ -7217,7 +7219,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7260,16 +7262,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1022.872235754093</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356188</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232832</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408902</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429799</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.61519755786</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487569</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487569</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831767</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.30283062588</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W40" t="n">
-        <v>1653.30283062588</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X40" t="n">
-        <v>1425.313279727863</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y40" t="n">
-        <v>1204.520700584333</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7445,7 +7447,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
         <v>3467.980956852889</v>
@@ -7485,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3007.624207651099</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C43" t="n">
-        <v>2838.688024723192</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D43" t="n">
-        <v>2688.571385310856</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E43" t="n">
-        <v>2540.658291728463</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F43" t="n">
-        <v>2393.768344230553</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
-        <v>2337.686731866304</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4471.231687421535</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>4182.156460765733</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>3927.471972559846</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>3638.054802522885</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X43" t="n">
-        <v>3410.065251624868</v>
+        <v>954.8188146898436</v>
       </c>
       <c r="Y43" t="n">
-        <v>3189.272672481338</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
     <row r="44">
@@ -7643,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>734.6461798836013</v>
+        <v>3195.647281583948</v>
       </c>
       <c r="C46" t="n">
-        <v>565.7099969556945</v>
+        <v>3026.711098656041</v>
       </c>
       <c r="D46" t="n">
-        <v>565.7099969556945</v>
+        <v>2876.594459243706</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>3605.285297312205</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>3377.295746414188</v>
       </c>
       <c r="Y46" t="n">
-        <v>916.2946447138411</v>
+        <v>3377.295746414188</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8060,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>224.3355197601774</v>
       </c>
       <c r="L3" t="n">
-        <v>211.0329012241554</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878346</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>70.03064962107925</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>265.0304328515139</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23416,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>85.2712688050168</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23653,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.45968844823106</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>124.9899273367992</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>43.72409101823416</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>6.705344245269515</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24424,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>112.6104454096921</v>
       </c>
     </row>
     <row r="26">
@@ -24607,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>111.4161395899837</v>
       </c>
     </row>
     <row r="29">
@@ -24841,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>60.19363748756501</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016445</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>33.93343655154678</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392193883</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856542</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>0.7017074173493256</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392193974</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856542</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.36248435538495</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25549,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>75.03697526433783</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272882</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>110.0033420516627</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462238</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856542</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012157</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016445</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>38.13892827624238</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26026,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>130.4994612393479</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26083,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>214.9597225531934</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>703984.9440347643</v>
+        <v>709926.8715358351</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>692174.0493866286</v>
+        <v>692174.0493866287</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>692174.0493866286</v>
+        <v>692174.0493866287</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>692174.0493866286</v>
+        <v>692174.0493866287</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>692174.0493866287</v>
+        <v>692174.0493866286</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>692174.0493866286</v>
+        <v>692174.0493866287</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>692174.0493866286</v>
+        <v>692174.0493866287</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>692174.0493866287</v>
+        <v>692174.0493866286</v>
       </c>
     </row>
     <row r="15">
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778545</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="C2" t="n">
         <v>738937.5928778546</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="E2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="G2" t="n">
         <v>726431.9397210055</v>
@@ -26332,25 +26334,25 @@
         <v>726431.9397210054</v>
       </c>
       <c r="I2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="J2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="K2" t="n">
         <v>726431.939721005</v>
       </c>
       <c r="L2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="M2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210057</v>
       </c>
       <c r="N2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="P2" t="n">
         <v>726431.9397210052</v>
@@ -26363,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403378</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.9700081908</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26423,43 @@
         <v>131909.726831625</v>
       </c>
       <c r="D4" t="n">
-        <v>86084.45926805862</v>
+        <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707412</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.42449670738</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707386</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="H4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6897.424496707414</v>
+      </c>
+      <c r="J4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="M4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="J4" t="n">
-        <v>6897.424496707361</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6897.424496707397</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6897.424496707398</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6897.424496707399</v>
-      </c>
       <c r="N4" t="n">
-        <v>6897.424496707474</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707446</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26475,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,28 +26521,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-600661.6899695351</v>
+        <v>-600661.6899695345</v>
       </c>
       <c r="C6" t="n">
         <v>514090.0936063849</v>
       </c>
       <c r="D6" t="n">
-        <v>352292.0526080655</v>
+        <v>514090.0936063849</v>
       </c>
       <c r="E6" t="n">
-        <v>292999.5235930359</v>
+        <v>110926.5437758452</v>
       </c>
       <c r="F6" t="n">
-        <v>618411.9854003908</v>
+        <v>618411.9854003906</v>
       </c>
       <c r="G6" t="n">
-        <v>618411.985400391</v>
+        <v>618411.9854003913</v>
       </c>
       <c r="H6" t="n">
         <v>618411.9854003909</v>
       </c>
       <c r="I6" t="n">
-        <v>618411.9854003908</v>
+        <v>618411.9854003909</v>
       </c>
       <c r="J6" t="n">
         <v>450806.8075904083</v>
@@ -26549,16 +26551,16 @@
         <v>618411.9854003906</v>
       </c>
       <c r="L6" t="n">
-        <v>570118.0153922001</v>
+        <v>618411.985400391</v>
       </c>
       <c r="M6" t="n">
-        <v>533356.9574648791</v>
+        <v>485804.6916714645</v>
       </c>
       <c r="N6" t="n">
-        <v>618411.9854003906</v>
+        <v>618411.9854003908</v>
       </c>
       <c r="O6" t="n">
-        <v>618411.9854003908</v>
+        <v>618411.9854003909</v>
       </c>
       <c r="P6" t="n">
         <v>618411.9854003907</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175391</v>
+      </c>
+      <c r="C3" t="n">
+        <v>934.0648921175392</v>
+      </c>
+      <c r="D3" t="n">
         <v>934.0648921175393</v>
-      </c>
-      <c r="C3" t="n">
-        <v>934.0648921175393</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,19 +26792,19 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="D4" t="n">
         <v>640.5848321000387</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022541</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27381,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>285.5117845586637</v>
       </c>
       <c r="E2" t="n">
-        <v>252.9782055031976</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,13 +27432,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>101.9034730146155</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>82.69683571208179</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>367.6285933794779</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27628,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27669,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>289.9699934661247</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27780,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,7 +27794,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>25.92125261082612</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,7 +27827,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>6.745277105940971</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,10 +27836,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27859,7 +27861,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>230.9726715005243</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>205.8220729646667</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>178.5247612626799</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,19 +28067,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>115.0119116157682</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29035,7 +29037,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -31039,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31291,16 +31293,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31312,7 +31314,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31361,7 +31363,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31373,16 +31375,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31440,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31467,7 +31469,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31476,7 +31478,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,10 +31837,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31847,22 +31849,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>353.130074847795</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>172.8142548092792</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>518.439455159358</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>538.1718564803244</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,34 +32311,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>506.5665344352332</v>
       </c>
       <c r="N18" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,13 +32551,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32567,10 +32569,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>485.927610870024</v>
       </c>
       <c r="Q21" t="n">
-        <v>177.7456072667729</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32792,22 +32794,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>616.5397119226058</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>308.1572428165614</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32953,7 +32955,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
         <v>981.2715114159425</v>
@@ -33023,7 +33025,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33032,10 +33034,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>377.6350660745956</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33044,10 +33046,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>165.3312853305619</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33205,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33260,31 +33262,31 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>254.8897444730604</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>602.8420149078241</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33506,7 +33508,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>640.2652944187043</v>
+        <v>677.2750468965965</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33521,7 +33523,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,22 +33736,22 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>303.4297552732313</v>
+        <v>388.514013929771</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33758,7 +33760,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33980,10 +33982,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>171.5999003578897</v>
       </c>
       <c r="N39" t="n">
-        <v>426.9501404413636</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,7 +33994,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34205,28 +34207,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>318.3985571819322</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34387,7 +34389,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34442,31 +34444,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>410.9230160036622</v>
       </c>
       <c r="L3" t="n">
-        <v>508.7132618620056</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,19 +34938,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34957,7 +34959,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313194</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>436.9619819031197</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
@@ -35091,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35106,13 +35108,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>514.7099619750462</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35495,22 +35497,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>219.1556674334648</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>27.13475084531527</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924738</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,16 +35734,16 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>376.3054212373396</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>406.8301443969911</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35881,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35905,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>364.4325005132149</v>
       </c>
       <c r="N18" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36133,7 +36135,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36142,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36215,10 +36217,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>351.9532034556937</v>
       </c>
       <c r="Q21" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36379,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,22 +36442,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>477.9853321427316</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>165.5609983721169</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36601,7 +36603,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36671,7 +36673,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36680,10 +36682,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>235.5010321525773</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36692,10 +36694,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>25.34951124454038</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>116.3353646931863</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>471.5003028244908</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37090,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,7 +37156,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>498.1312604966861</v>
+        <v>535.1410129745782</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37169,7 +37171,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37315,7 +37317,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37327,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>160.8335108287869</v>
+        <v>245.9177694853266</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37406,7 +37408,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37628,10 +37630,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>29.46586643587134</v>
       </c>
       <c r="N39" t="n">
-        <v>295.6084283580303</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>176.2645232599139</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>219.1556674334648</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38035,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>285.360777932</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>219.1556674334648</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3383051.755588431</v>
+        <v>3378914.598338279</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>69.17125706201922</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>140.7607186789922</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>65.34334808401231</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>98.89148327532443</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>32.08809980237877</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>37.78226500401019</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>78.87534259307446</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>145.1576791500341</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1119,7 +1119,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,7 +1150,7 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>196.6997841156784</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>163.9090277138023</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.307218919257359</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>197.4147107719971</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1372,10 +1372,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>107.7122866515521</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>132.1341815222715</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>220.6346102953144</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>100.7197280522379</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>136.1078891637031</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>160.5414768533583</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2487,7 +2487,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2535,16 +2535,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>284.9482459370672</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>105.9742079424027</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y28" t="n">
-        <v>107.1685137621111</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>88.42183553064734</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>285.4827669718948</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.01276235473674205</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>248.3840700603486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>71.56327578339756</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1283.162304328173</v>
+        <v>990.2034880760491</v>
       </c>
       <c r="C2" t="n">
-        <v>914.1997873877613</v>
+        <v>990.2034880760491</v>
       </c>
       <c r="D2" t="n">
-        <v>844.329830759459</v>
+        <v>990.2034880760491</v>
       </c>
       <c r="E2" t="n">
-        <v>844.329830759459</v>
+        <v>604.4152354778048</v>
       </c>
       <c r="F2" t="n">
-        <v>433.3439259698515</v>
+        <v>193.4293306881972</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V2" t="n">
-        <v>2022.530799662409</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W2" t="n">
-        <v>1669.762144392295</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="X2" t="n">
-        <v>1669.762144392295</v>
+        <v>1380.342820051861</v>
       </c>
       <c r="Y2" t="n">
-        <v>1669.762144392295</v>
+        <v>990.2034880760491</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>520.4109910936369</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>815.1145481251085</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>1178.376567084329</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N3" t="n">
-        <v>1565.661695681274</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1977.748514897737</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2224.931248730034</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2548.223678696071</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>668.0249956342917</v>
+        <v>932.979501827063</v>
       </c>
       <c r="C4" t="n">
-        <v>602.021613731249</v>
+        <v>764.0433188991561</v>
       </c>
       <c r="D4" t="n">
-        <v>451.9049743189132</v>
+        <v>613.9266794868204</v>
       </c>
       <c r="E4" t="n">
-        <v>303.9918807365201</v>
+        <v>466.0135859044273</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386098</v>
+        <v>319.1236384065169</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>151.1371737147955</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4515,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1150.699034738196</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>896.0145465323091</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W4" t="n">
-        <v>896.0145465323091</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="X4" t="n">
-        <v>668.0249956342917</v>
+        <v>1153.772080970593</v>
       </c>
       <c r="Y4" t="n">
-        <v>668.0249956342917</v>
+        <v>932.979501827063</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1202.59552936621</v>
+        <v>1674.035030689734</v>
       </c>
       <c r="C5" t="n">
-        <v>1202.59552936621</v>
+        <v>1305.072513749322</v>
       </c>
       <c r="D5" t="n">
-        <v>844.329830759459</v>
+        <v>946.8068151425714</v>
       </c>
       <c r="E5" t="n">
-        <v>844.329830759459</v>
+        <v>561.0185625443271</v>
       </c>
       <c r="F5" t="n">
-        <v>433.3439259698515</v>
+        <v>150.0326577547195</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V5" t="n">
-        <v>2315.429782961525</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="W5" t="n">
-        <v>1962.661127691411</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="X5" t="n">
-        <v>1589.195369430331</v>
+        <v>2064.174362665545</v>
       </c>
       <c r="Y5" t="n">
-        <v>1589.195369430331</v>
+        <v>1674.035030689734</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542605</v>
@@ -4634,37 +4634,37 @@
         <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1025.614745646621</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
         <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601822</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434119</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4685,7 +4685,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
         <v>1307.279776881661</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>281.0354892056666</v>
+        <v>536.0825277700245</v>
       </c>
       <c r="C7" t="n">
-        <v>281.0354892056666</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="D7" t="n">
-        <v>130.9188497933308</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="E7" t="n">
-        <v>130.9188497933308</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F7" t="n">
-        <v>130.9188497933308</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>130.9188497933308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>130.9188497933308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>825.137147448514</v>
+        <v>1489.822201741129</v>
       </c>
       <c r="V7" t="n">
-        <v>570.4526592426272</v>
+        <v>1235.137713535242</v>
       </c>
       <c r="W7" t="n">
-        <v>281.0354892056666</v>
+        <v>945.7205434982816</v>
       </c>
       <c r="X7" t="n">
-        <v>281.0354892056666</v>
+        <v>717.7309926002642</v>
       </c>
       <c r="Y7" t="n">
-        <v>281.0354892056666</v>
+        <v>717.7309926002642</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1532.706951134003</v>
+        <v>1785.600156360221</v>
       </c>
       <c r="C8" t="n">
-        <v>1163.744434193592</v>
+        <v>1416.63763941981</v>
       </c>
       <c r="D8" t="n">
-        <v>1163.744434193592</v>
+        <v>1058.371940813059</v>
       </c>
       <c r="E8" t="n">
-        <v>777.9561815953474</v>
+        <v>672.5836882148151</v>
       </c>
       <c r="F8" t="n">
-        <v>366.9702768057398</v>
+        <v>261.5977834252075</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>249.9334371899005</v>
       </c>
       <c r="H8" t="n">
         <v>51.2467865680031</v>
@@ -4804,16 +4804,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>2084.871465656511</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X8" t="n">
-        <v>1919.306791198125</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="Y8" t="n">
-        <v>1919.306791198125</v>
+        <v>2172.199996424343</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735142</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049859</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>664.1529317523638</v>
+        <v>517.189556406156</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1529317523638</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
         <v>51.2467865680031</v>
@@ -4962,52 +4962,52 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1114.255484944676</v>
+        <v>1437.037321314904</v>
       </c>
       <c r="W10" t="n">
-        <v>1114.255484944676</v>
+        <v>1147.620151277943</v>
       </c>
       <c r="X10" t="n">
-        <v>886.2659340466589</v>
+        <v>919.6306003799259</v>
       </c>
       <c r="Y10" t="n">
-        <v>665.4733549031288</v>
+        <v>698.8380212363958</v>
       </c>
     </row>
     <row r="11">
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5056,34 +5056,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>923.0670414349511</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1550.665004989558</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>782.8410298377091</v>
+        <v>762.5477693179095</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377091</v>
+        <v>593.6115863900026</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>593.6115863900026</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T13" t="n">
-        <v>2246.448509608146</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U13" t="n">
-        <v>1957.373282952344</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V13" t="n">
-        <v>1702.688794746457</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W13" t="n">
-        <v>1413.271624709496</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X13" t="n">
-        <v>1185.282073811479</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y13" t="n">
-        <v>964.4894946679489</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="14">
@@ -5269,19 +5269,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,10 +5290,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
@@ -5302,7 +5302,7 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>640.1060525954244</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C16" t="n">
-        <v>640.1060525954244</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D16" t="n">
-        <v>489.9894131830887</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5445,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5454,13 +5454,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487568</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X16" t="n">
-        <v>1042.547096569194</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y16" t="n">
-        <v>821.7545174256642</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
@@ -5503,10 +5503,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5515,10 +5515,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5548,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>558.0193492433381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>558.0193492433381</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5734,37 +5734,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5831,28 +5831,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1025.119922845744</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1652.717886400351</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O21" t="n">
-        <v>2204.627616639638</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>924.6979859831846</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1327.139029956954</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1106.346450813424</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,61 +5980,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1965.532750177311</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6183,16 +6183,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.701365648819</v>
+        <v>1400.559342807163</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.711814750802</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="Y25" t="n">
-        <v>1098.667160263526</v>
+        <v>951.777212765616</v>
       </c>
     </row>
     <row r="26">
@@ -6211,37 +6211,37 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6305,28 +6305,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>924.8344286397182</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1552.432392194325</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O27" t="n">
-        <v>2104.342122433612</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2527.96527192868</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3342.537229081859</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153952</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3860.426268812248</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3860.426268812248</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3632.436717914231</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>3524.185693912098</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,31 +6451,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6542,16 +6542,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>542.9134462654469</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1140.291933891999</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
         <v>1767.889897446606</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>808.8888553856862</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>639.9526724577793</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>990.5373202159259</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,16 +6712,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>4623.787448650995</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>4335.421017366253</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>4080.736529160366</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>3791.319359123406</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>3563.329808225389</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>3342.537229081859</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6928,19 +6928,19 @@
         <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7016,25 +7016,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1025.119922845744</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1652.717886400351</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3006.404946868832</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>3006.404946868832</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>2856.288307456496</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>2708.375213874103</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>2561.485266376193</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.820261131183</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4507.965426786087</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>4288.363961809028</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>3999.288735153226</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>3744.60424694734</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>3455.187076910379</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>3227.197526012362</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>3006.404946868832</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7174,19 +7174,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7262,19 +7262,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7405,16 +7405,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>552.3777707160738</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>383.4415877881669</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>383.4415877881669</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1182.808365587861</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>954.8188146898436</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>734.0262355463135</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7639,28 +7639,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3195.647281583948</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>3026.711098656041</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>2876.594459243706</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>3605.285297312205</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>3377.295746414188</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>3377.295746414188</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>224.3355197601774</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>305.1601501039157</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>35.19601322587742</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>70.03064962107925</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>265.0304328515139</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>38.72167599501702</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>85.2712688050168</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>65.54986409392978</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>124.9899273367992</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>43.72409101823416</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>6.705344245269515</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>1.574752399523788</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>112.6104454096921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y28" t="n">
-        <v>111.4161395899837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>60.19363748756501</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0.7017074173493256</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.36248435538495</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25794,13 +25794,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>38.13892827624238</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>214.9597225531934</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>692174.0493866287</v>
+        <v>692174.0493866286</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>692174.0493866287</v>
+        <v>692174.0493866286</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>692174.0493866287</v>
+        <v>692174.0493866286</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778545</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778545</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778545</v>
       </c>
       <c r="E2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="F2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="G2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="G2" t="n">
-        <v>726431.9397210055</v>
-      </c>
       <c r="H2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="I2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="J2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="K2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210049</v>
       </c>
       <c r="L2" t="n">
         <v>726431.9397210055</v>
       </c>
       <c r="M2" t="n">
-        <v>726431.9397210057</v>
+        <v>726431.939721005</v>
       </c>
       <c r="N2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="O2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210053</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245464</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26426,40 +26426,40 @@
         <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
+        <v>6897.424496707319</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6897.424496707317</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="H4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="F4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="J4" t="n">
         <v>6897.424496707361</v>
       </c>
-      <c r="I4" t="n">
-        <v>6897.424496707414</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6897.42449670736</v>
-      </c>
       <c r="K4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="M4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707361</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-600661.6899695345</v>
+        <v>-600661.6899695349</v>
       </c>
       <c r="C6" t="n">
-        <v>514090.0936063849</v>
+        <v>514090.0936063851</v>
       </c>
       <c r="D6" t="n">
-        <v>514090.0936063849</v>
+        <v>514090.0936063848</v>
       </c>
       <c r="E6" t="n">
-        <v>110926.5437758452</v>
+        <v>110579.1645214876</v>
       </c>
       <c r="F6" t="n">
-        <v>618411.9854003906</v>
+        <v>618064.6061460337</v>
       </c>
       <c r="G6" t="n">
-        <v>618411.9854003913</v>
+        <v>618064.6061460342</v>
       </c>
       <c r="H6" t="n">
-        <v>618411.9854003909</v>
+        <v>618064.6061460339</v>
       </c>
       <c r="I6" t="n">
-        <v>618411.9854003909</v>
+        <v>618064.6061460339</v>
       </c>
       <c r="J6" t="n">
-        <v>450806.8075904083</v>
+        <v>450459.4283360511</v>
       </c>
       <c r="K6" t="n">
-        <v>618411.9854003906</v>
+        <v>618064.6061460334</v>
       </c>
       <c r="L6" t="n">
-        <v>618411.985400391</v>
+        <v>618064.6061460341</v>
       </c>
       <c r="M6" t="n">
-        <v>485804.6916714645</v>
+        <v>485457.3124171068</v>
       </c>
       <c r="N6" t="n">
-        <v>618411.9854003908</v>
+        <v>618064.6061460339</v>
       </c>
       <c r="O6" t="n">
-        <v>618411.9854003909</v>
+        <v>618064.606146034</v>
       </c>
       <c r="P6" t="n">
-        <v>618411.9854003907</v>
+        <v>618064.6061460337</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175393</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
-      <c r="C3" t="n">
-        <v>934.0648921175392</v>
-      </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,16 +26792,16 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,26 +26968,26 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241351</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>285.5117845586637</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>270.7869840939618</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>101.9034730146155</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>48.36002587980441</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>379.4596029705752</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>289.9699934661247</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>25.92125261082612</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>141.0694749711665</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>104.318768446727</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>205.8220729646667</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>178.5247612626799</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>54.72293255183087</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-9.379164112033322e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -29037,7 +29037,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31281,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31381,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31472,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>446.0127311990634</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>172.8142548092792</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32080,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>538.1718564803244</v>
+        <v>465.7451325200299</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,7 +32104,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32311,28 +32311,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>506.5665344352332</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32551,16 +32551,16 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32569,13 +32569,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>485.927610870024</v>
+        <v>400.8433522134843</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>308.1572428165614</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33025,7 +33025,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33034,22 +33034,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>556.532545233504</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>165.3312853305619</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>254.8897444730604</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>677.2750468965965</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>388.514013929771</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33982,22 +33982,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>171.5999003578897</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34207,34 +34207,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>318.3985571819322</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>423.9151577118742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>410.9230160036622</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>14.25823202432754</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>436.9619819031197</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35105,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35114,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>514.7099619750462</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>303.878697277045</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>27.13475084531527</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>406.8301443969911</v>
+        <v>334.4034204366966</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35816,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35883,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35892,7 +35892,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>364.4325005132149</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36135,7 +36135,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36217,13 +36217,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>351.9532034556937</v>
+        <v>266.868944799154</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>165.5609983721169</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36682,22 +36682,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>425.1908331501707</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>25.34951124454038</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>116.3353646931863</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>535.1410129745782</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>245.9177694853266</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37630,22 +37630,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>29.46586643587134</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>176.2645232599139</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>285.360777932</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3378914.598338279</v>
+        <v>3380675.128641064</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8054929.947099304</v>
+        <v>8054929.947099305</v>
       </c>
     </row>
     <row r="11">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>140.7607186789922</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>180.9895823668603</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -834,46 +834,46 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
         <v>98.89148327532443</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>233.8447291789213</v>
       </c>
       <c r="G5" t="n">
-        <v>32.08809980237877</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>93.81984689656753</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>145.1576791500341</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>208.2474868886324</v>
       </c>
       <c r="H8" t="n">
-        <v>196.6997841156784</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>92.61811556809651</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>197.4147107719971</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>107.7122866515521</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>80.11763046889914</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>220.6346102953144</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2535,10 +2535,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>284.9482459370672</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>105.11626575513</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>1.799772605716619</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,10 +3009,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>990.2034880760491</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="C2" t="n">
-        <v>990.2034880760491</v>
+        <v>1467.14239792855</v>
       </c>
       <c r="D2" t="n">
-        <v>990.2034880760491</v>
+        <v>1108.876699321799</v>
       </c>
       <c r="E2" t="n">
-        <v>604.4152354778048</v>
+        <v>723.0884467235549</v>
       </c>
       <c r="F2" t="n">
-        <v>193.4293306881972</v>
+        <v>312.1025419339473</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>300.4381956986402</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4336,10 +4336,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>2106.577233583055</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W2" t="n">
-        <v>1753.808578312941</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X2" t="n">
-        <v>1380.342820051861</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y2" t="n">
-        <v>990.2034880760491</v>
+        <v>1836.104914868961</v>
       </c>
     </row>
     <row r="3">
@@ -4391,46 +4391,46 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>590.2049751143497</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>884.9085321458215</v>
       </c>
       <c r="M3" t="n">
-        <v>956.2844025217532</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>1977.748514897737</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2224.931248730034</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2548.223678696071</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>932.979501827063</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C4" t="n">
-        <v>764.0433188991561</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D4" t="n">
-        <v>613.9266794868204</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>466.0135859044273</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>319.1236384065169</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>151.1371737147955</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4521,19 +4521,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1536.555732927705</v>
       </c>
       <c r="V4" t="n">
-        <v>1381.76163186861</v>
+        <v>1281.871244721818</v>
       </c>
       <c r="W4" t="n">
-        <v>1381.76163186861</v>
+        <v>1281.871244721818</v>
       </c>
       <c r="X4" t="n">
-        <v>1153.772080970593</v>
+        <v>1053.881693823801</v>
       </c>
       <c r="Y4" t="n">
-        <v>932.979501827063</v>
+        <v>833.0891146802707</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1674.035030689734</v>
+        <v>1412.134398099142</v>
       </c>
       <c r="C5" t="n">
-        <v>1305.072513749322</v>
+        <v>1043.17188115873</v>
       </c>
       <c r="D5" t="n">
-        <v>946.8068151425714</v>
+        <v>684.90618255198</v>
       </c>
       <c r="E5" t="n">
-        <v>561.0185625443271</v>
+        <v>299.1179299537358</v>
       </c>
       <c r="F5" t="n">
-        <v>150.0326577547195</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X5" t="n">
-        <v>2064.174362665545</v>
+        <v>2188.873570139076</v>
       </c>
       <c r="Y5" t="n">
-        <v>1674.035030689734</v>
+        <v>1798.734238163264</v>
       </c>
     </row>
     <row r="6">
@@ -4622,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M6" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
         <v>1991.864164601821</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>536.0825277700245</v>
+        <v>461.9138669598626</v>
       </c>
       <c r="C7" t="n">
         <v>367.1463448421176</v>
@@ -4716,34 +4716,34 @@
         <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4758,19 +4758,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1489.822201741129</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1235.137713535242</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W7" t="n">
-        <v>945.7205434982816</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X7" t="n">
-        <v>717.7309926002642</v>
+        <v>864.3549109336325</v>
       </c>
       <c r="Y7" t="n">
-        <v>717.7309926002642</v>
+        <v>643.5623317901023</v>
       </c>
     </row>
     <row r="8">
@@ -4795,7 +4795,7 @@
         <v>261.5977834252075</v>
       </c>
       <c r="G8" t="n">
-        <v>249.9334371899005</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
         <v>51.2467865680031</v>
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
         <v>607.9167021542605</v>
@@ -4871,10 +4871,10 @@
         <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
@@ -4922,7 +4922,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
         <v>1307.279776881661</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>517.189556406156</v>
+        <v>623.0447030767627</v>
       </c>
       <c r="C10" t="n">
-        <v>348.2533734782492</v>
+        <v>454.1085201488559</v>
       </c>
       <c r="D10" t="n">
-        <v>198.1367340659135</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
         <v>51.2467865680031</v>
@@ -4986,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1542.892467985511</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1542.892467985511</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1542.892467985511</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1542.892467985511</v>
       </c>
       <c r="V10" t="n">
-        <v>1437.037321314904</v>
+        <v>1542.892467985511</v>
       </c>
       <c r="W10" t="n">
-        <v>1147.620151277943</v>
+        <v>1253.47529794855</v>
       </c>
       <c r="X10" t="n">
-        <v>919.6306003799259</v>
+        <v>1025.485747050533</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.8380212363958</v>
+        <v>804.6931679070025</v>
       </c>
     </row>
     <row r="11">
@@ -5035,55 +5035,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>762.5477693179095</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C13" t="n">
-        <v>593.6115863900026</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D13" t="n">
-        <v>593.6115863900026</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,7 +5217,7 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
@@ -5226,25 +5226,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258107</v>
+        <v>2183.181349771631</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602305</v>
+        <v>1894.106123115829</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396418</v>
+        <v>1639.421634909942</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359457</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614396</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179095</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="14">
@@ -5260,10 +5260,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,19 +5290,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
         <v>1072.713683962606</v>
@@ -5369,7 +5369,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.0655846733346</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>411.1294017454277</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5445,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5454,34 +5454,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1754.597837787969</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1499.913349582082</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1210.496179545122</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>982.5066286471044</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>761.7140495035743</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
@@ -5503,22 +5503,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5533,7 +5533,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5548,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5591,13 +5591,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5734,31 +5734,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5892,16 +5892,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5980,13 +5980,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>951.777212765616</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C25" t="n">
-        <v>782.8410298377091</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253734</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
         <v>484.8112968429803</v>
@@ -6183,16 +6183,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1400.559342807163</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1172.569791909146</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>951.777212765616</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6211,22 +6211,22 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6317,16 +6317,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6426,10 +6426,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>1057.955258982919</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>889.0190760550122</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>738.9024366426764</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>590.9893430602833</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1460.396302956689</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>1239.603723813159</v>
       </c>
     </row>
     <row r="32">
@@ -6688,37 +6688,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,40 +6925,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7156,16 +7156,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7174,19 +7174,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7311,19 +7311,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7405,25 +7405,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039157</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>35.19601322587742</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>38.72167599501702</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>137.2878198583891</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>65.54986409392978</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194223</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>107.2784330767828</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24423,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>1.574752399523788</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>40.30478226780122</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>692174.0493866287</v>
+        <v>692174.0493866286</v>
       </c>
     </row>
     <row r="6">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>692174.0493866286</v>
+        <v>692174.0493866287</v>
       </c>
     </row>
     <row r="12">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778545</v>
+        <v>738937.5928778541</v>
       </c>
       <c r="C2" t="n">
         <v>738937.5928778545</v>
@@ -26322,37 +26322,37 @@
         <v>738937.5928778545</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="F2" t="n">
         <v>726431.9397210052</v>
       </c>
       <c r="G2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="H2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="I2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.939721005</v>
       </c>
       <c r="J2" t="n">
         <v>726431.9397210052</v>
       </c>
       <c r="K2" t="n">
-        <v>726431.9397210049</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="L2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="M2" t="n">
         <v>726431.939721005</v>
       </c>
       <c r="N2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="O2" t="n">
         <v>726431.9397210052</v>
-      </c>
-      <c r="O2" t="n">
-        <v>726431.9397210054</v>
       </c>
       <c r="P2" t="n">
         <v>726431.9397210053</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245464</v>
+        <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289269</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,13 +26426,13 @@
         <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707319</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707317</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="H4" t="n">
         <v>6897.42449670736</v>
@@ -26441,13 +26441,13 @@
         <v>6897.424496707359</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="M4" t="n">
         <v>6897.42449670736</v>
@@ -26459,7 +26459,7 @@
         <v>6897.424496707359</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-600661.6899695349</v>
+        <v>-600661.6899695355</v>
       </c>
       <c r="C6" t="n">
+        <v>514090.0936063848</v>
+      </c>
+      <c r="D6" t="n">
         <v>514090.0936063851</v>
       </c>
-      <c r="D6" t="n">
-        <v>514090.0936063848</v>
-      </c>
       <c r="E6" t="n">
-        <v>110579.1645214876</v>
+        <v>110891.805850409</v>
       </c>
       <c r="F6" t="n">
-        <v>618064.6061460337</v>
+        <v>618377.247474955</v>
       </c>
       <c r="G6" t="n">
-        <v>618064.6061460342</v>
+        <v>618377.247474955</v>
       </c>
       <c r="H6" t="n">
-        <v>618064.6061460339</v>
+        <v>618377.2474749553</v>
       </c>
       <c r="I6" t="n">
-        <v>618064.6061460339</v>
+        <v>618377.2474749549</v>
       </c>
       <c r="J6" t="n">
-        <v>450459.4283360511</v>
+        <v>450772.0696649724</v>
       </c>
       <c r="K6" t="n">
-        <v>618064.6061460334</v>
+        <v>618377.2474749553</v>
       </c>
       <c r="L6" t="n">
-        <v>618064.6061460341</v>
+        <v>618377.2474749552</v>
       </c>
       <c r="M6" t="n">
-        <v>485457.3124171068</v>
+        <v>485769.9537460279</v>
       </c>
       <c r="N6" t="n">
-        <v>618064.6061460339</v>
+        <v>618377.2474749554</v>
       </c>
       <c r="O6" t="n">
-        <v>618064.606146034</v>
+        <v>618377.247474955</v>
       </c>
       <c r="P6" t="n">
-        <v>618064.6061460337</v>
+        <v>618377.2474749552</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241351</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26986,14 +26986,14 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>270.7869840939618</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>120.0289701955451</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -27438,7 +27438,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>48.36002587980441</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27593,7 +27593,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>187.3356708458762</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>173.0313165627901</v>
       </c>
       <c r="G5" t="n">
-        <v>379.4596029705752</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>73.42697420206031</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27830,7 +27830,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>141.0694749711665</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>203.3002158843216</v>
       </c>
       <c r="H8" t="n">
-        <v>104.318768446727</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -28031,7 +28031,7 @@
         <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>8.939456851477118</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28070,7 +28070,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>54.72293255183087</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-9.379164112033322e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,25 +31837,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>446.0127311990634</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,7 +31867,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200299</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,7 +32104,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33037,7 +33037,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>556.532545233504</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
@@ -33049,7 +33049,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>230.1272937575231</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
@@ -34792,7 +34792,7 @@
         <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000387</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34801,7 +34801,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>14.25823202432754</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>303.878697277045</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366966</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35816,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36685,7 +36685,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>425.1908331501707</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,13 +36925,13 @@
         <v>98.78558167418976</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
